--- a/biology/Zoologie/Calycopis_blora/Calycopis_blora.xlsx
+++ b/biology/Zoologie/Calycopis_blora/Calycopis_blora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calycopis blora est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Calycopis.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Calycopis blora a été décrite en 1967 par William Dewitt Field (d) (1914-1992) sous le nom initial de Calystryma blora[2],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Calycopis blora a été décrite en 1967 par William Dewitt Field (d) (1914-1992) sous le nom initial de Calystryma blora,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calycopis blora est un petit papillon aux pattes et aux antennes cerclés de blanc et noir, avec deux fines queues à chaque aile postérieure.
 Le dessus est de couleur marron clair à beige foncé.
@@ -572,12 +588,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calycopis blora est endémique de la Guyane,.
+</t>
         </is>
       </c>
     </row>
@@ -607,10 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calycopis blora est endémique de la Guyane[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
@@ -639,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) William D. Field, « Butterflies of the New Genus Calystryma (Lycaenidae: Theclinae, Strymonini) », Proceedings of the United States National Museum, Washington, Inconnu, vol. 123, no 3611,‎ 1967, p. 1–31 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.123-3611.1, lire en ligne)</t>
         </is>
